--- a/每週空單需求.xlsx
+++ b/每週空單需求.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>空單賣出標的</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>3221</t>
+  </si>
+  <si>
+    <t>4739</t>
   </si>
   <si>
     <t>6491</t>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -425,9 +428,23 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>391.5</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
